--- a/documentatie/Excel bestanden/Product backlog overview & Sprint backlogs(2).xlsx
+++ b/documentatie/Excel bestanden/Product backlog overview & Sprint backlogs(2).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anil\Documents\School Rotterdam\Informatica analyse\Periode 3\Project-3-data-application\Project-3-Data-Application\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anil\Documents\School Rotterdam\Informatica analyse\Periode 3\Project-3-data-application\Project-3-Data-Application\documentatie\Excel bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6336" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Er moet tenminste 1 dataset zijn, die informatie bevat over tijd</t>
-  </si>
-  <si>
-    <t>De antwoorden op de goedgekeurde vragen zijn afgeleid van de gegevensbron door de applicatie</t>
   </si>
   <si>
     <t>Als user wil ik 3 vragen zien, zodat deze goedgekeurd kan worden door de product owner.</t>
@@ -213,9 +210,6 @@
     <t>1. Er moet data opgehaald kunnen worden vanuit de database d.m.v. input</t>
   </si>
   <si>
-    <t>1. Zorg dat de vragen beantwoordbaar zijn door de applicatie</t>
-  </si>
-  <si>
     <t>1. maak een Use Case diagram 2. maak een Activity diagram.</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
   </si>
   <si>
     <t>Als user wil ik een formulier in C# gekoppeld zien aan de database om data op te halen</t>
-  </si>
-  <si>
-    <t>Als user wil ik zien dat antwoorden op de goedgekeurde vragen zijn afgeleid van de gegevensbron door de applicatie</t>
   </si>
   <si>
     <t>Als user wil ik een UML 2.0 Use Case diagram en Activity Diagram van de gehele applicatie zien.</t>
@@ -267,9 +258,6 @@
     <t>1. de grafieken moeten 2 verschillende types zijn</t>
   </si>
   <si>
-    <t>1. De app moet gegevens ophalen vanuit de database</t>
-  </si>
-  <si>
     <t>1. De usecase diagram moet correct en af zijn               2. De activity diagram moet correct en af zijn</t>
   </si>
   <si>
@@ -277,6 +265,9 @@
   </si>
   <si>
     <t>1. Het icontje moet passen bij de applicatie.</t>
+  </si>
+  <si>
+    <t>Als user wil ik tenminste 2 grafieken zien in de applicatie.</t>
   </si>
 </sst>
 </file>
@@ -337,7 +328,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,20 +347,8 @@
         <bgColor rgb="FF3366FF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -690,17 +669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -713,20 +681,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -769,13 +728,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -946,13 +899,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,29 +913,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1267,18 +1196,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N999"/>
+  <dimension ref="A1:N998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="18" customWidth="1"/>
+    <col min="1" max="1" width="5" style="16" customWidth="1"/>
     <col min="2" max="2" width="88.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5546875" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
@@ -1288,10 +1217,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="76"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="8"/>
@@ -1344,7 +1273,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -1361,14 +1290,14 @@
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1385,14 +1314,14 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1409,14 +1338,14 @@
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1430,7 +1359,7 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1440,7 +1369,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1454,20 +1383,20 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="82" t="s">
-        <v>19</v>
+      <c r="B8" t="s">
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="29" t="s">
-        <v>36</v>
+      <c r="D8" s="7"/>
+      <c r="E8" s="27" t="s">
+        <v>35</v>
       </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="2"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1478,20 +1407,20 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
+      <c r="B9" s="9" t="s">
+        <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="29" t="s">
-        <v>36</v>
+      <c r="E9" s="27" t="s">
+        <v>35</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="2"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -1501,131 +1430,131 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="29" t="s">
-        <v>36</v>
+      <c r="E10" s="27" t="s">
+        <v>35</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:14" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="29" t="s">
-        <v>36</v>
+      <c r="E11" s="27" t="s">
+        <v>35</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:14" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>52</v>
+      <c r="B12" s="79" t="s">
+        <v>50</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="29" t="s">
-        <v>36</v>
+      <c r="E12" s="27" t="s">
+        <v>35</v>
       </c>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="83" t="s">
-        <v>51</v>
+      <c r="B13" s="9" t="s">
+        <v>37</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>8</v>
+      <c r="C13" t="s">
+        <v>38</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="29" t="s">
-        <v>36</v>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27" t="s">
+        <v>35</v>
       </c>
-      <c r="F13" s="29"/>
-    </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="F13" s="8"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>13</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29" t="s">
-        <v>36</v>
+      <c r="C15" s="15" t="s">
+        <v>40</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>13</v>
+      <c r="D15" s="8"/>
+      <c r="E15" s="27" t="s">
+        <v>35</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="F15" s="8"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="29" t="s">
-        <v>36</v>
+      <c r="E16" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="2"/>
@@ -1637,21 +1566,21 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+    <row r="17" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>50</v>
+      <c r="B17" s="15" t="s">
+        <v>57</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>41</v>
+      <c r="C17" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="29" t="s">
-        <v>36</v>
+      <c r="E17" s="8"/>
+      <c r="F17" s="27" t="s">
+        <v>35</v>
       </c>
-      <c r="F17" s="8"/>
       <c r="G17" s="2"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1661,20 +1590,20 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>58</v>
+      <c r="B18" s="15" t="s">
+        <v>73</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>41</v>
+      <c r="C18" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="29" t="s">
-        <v>36</v>
+      <c r="F18" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="9"/>
@@ -1686,20 +1615,12 @@
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>17</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="A19" s="11"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="29" t="s">
-        <v>36</v>
-      </c>
+      <c r="F19" s="8"/>
       <c r="G19" s="2"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1711,8 +1632,8 @@
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1727,8 +1648,8 @@
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1743,8 +1664,8 @@
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -1759,8 +1680,8 @@
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1775,8 +1696,8 @@
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1885,7 +1806,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1901,7 +1822,7 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1917,14 +1838,14 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1934,12 +1855,11 @@
       <c r="N33" s="9"/>
     </row>
     <row r="34" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -16394,27 +16314,12 @@
       <c r="M997" s="9"/>
       <c r="N997" s="9"/>
     </row>
-    <row r="998" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B998" s="9"/>
       <c r="C998" s="9"/>
       <c r="D998" s="9"/>
       <c r="E998" s="9"/>
       <c r="F998" s="9"/>
-      <c r="G998" s="9"/>
-      <c r="H998" s="9"/>
-      <c r="I998" s="9"/>
-      <c r="J998" s="9"/>
-      <c r="K998" s="9"/>
-      <c r="L998" s="9"/>
-      <c r="M998" s="9"/>
-      <c r="N998" s="9"/>
-    </row>
-    <row r="999" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B999" s="9"/>
-      <c r="C999" s="9"/>
-      <c r="D999" s="9"/>
-      <c r="E999" s="9"/>
-      <c r="F999" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:B3"/>
@@ -16437,22 +16342,22 @@
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="19" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="47.44140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="47.44140625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="39"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -16475,22 +16380,22 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="44" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2"/>
@@ -16515,23 +16420,23 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69">
+      <c r="A3" s="67">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="s">
-        <v>20</v>
+      <c r="B3" s="68" t="s">
+        <v>19</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="71">
+      <c r="D3" s="69">
         <v>12</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="45" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -16555,23 +16460,23 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60">
+      <c r="A4" s="58">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="53">
+        <v>6</v>
+      </c>
+      <c r="E4" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="55">
-        <v>6</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>32</v>
+      <c r="F4" s="61" t="s">
+        <v>31</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -16595,23 +16500,23 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60">
+      <c r="A5" s="58">
         <v>3</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="53">
+        <v>2</v>
+      </c>
+      <c r="E5" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="55">
-        <v>2</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>33</v>
+      <c r="F5" s="61" t="s">
+        <v>32</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -16635,23 +16540,23 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="61">
+      <c r="A6" s="59">
         <v>4</v>
       </c>
-      <c r="B6" s="59" t="s">
-        <v>29</v>
+      <c r="B6" s="57" t="s">
+        <v>28</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="55">
         <v>4</v>
       </c>
-      <c r="E6" s="56" t="s">
-        <v>23</v>
+      <c r="E6" s="54" t="s">
+        <v>22</v>
       </c>
-      <c r="F6" s="64" t="s">
-        <v>34</v>
+      <c r="F6" s="62" t="s">
+        <v>33</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -16675,23 +16580,23 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62">
+      <c r="A7" s="60">
         <v>5</v>
       </c>
-      <c r="B7" s="65" t="s">
-        <v>21</v>
+      <c r="B7" s="63" t="s">
+        <v>20</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="64">
         <v>8</v>
       </c>
-      <c r="E7" s="67" t="s">
-        <v>24</v>
+      <c r="E7" s="65" t="s">
+        <v>23</v>
       </c>
-      <c r="F7" s="68" t="s">
-        <v>35</v>
+      <c r="F7" s="66" t="s">
+        <v>34</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -16808,11 +16713,11 @@
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -16836,11 +16741,11 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -16864,11 +16769,11 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -16892,11 +16797,11 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -16920,11 +16825,11 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -16948,11 +16853,11 @@
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -16976,7 +16881,7 @@
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="22"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -39597,8 +39502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -39611,193 +39516,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
+      <c r="A3" s="34">
+        <v>6</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="36">
+        <v>8</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
         <v>7</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B4" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="29">
+        <v>80</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
+        <v>8</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="48">
+        <v>20</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>9</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="29">
+        <v>20</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>10</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="29">
+        <v>12</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>11</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="29">
+        <v>20</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="9" customFormat="1" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
+        <v>13</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>8</v>
+      <c r="C9" s="48" t="s">
+        <v>40</v>
       </c>
-      <c r="D3" s="38">
-        <v>8</v>
+      <c r="D9" s="48">
+        <v>20</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>43</v>
+      <c r="E9" s="49" t="s">
+        <v>46</v>
       </c>
-      <c r="F3" s="47" t="s">
-        <v>44</v>
+      <c r="F9" s="50" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
-        <v>8</v>
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
+        <v>14</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="31">
+      <c r="B10" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>45</v>
+      <c r="C10" s="48" t="s">
+        <v>40</v>
       </c>
-      <c r="F4" s="48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35">
-        <v>9</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="50">
+      <c r="D10" s="48">
         <v>20</v>
       </c>
-      <c r="E5" s="51" t="s">
-        <v>55</v>
+      <c r="E10" s="49" t="s">
+        <v>63</v>
       </c>
-      <c r="F5" s="52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
-        <v>10</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="31">
-        <v>20</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
-        <v>11</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="31">
-        <v>12</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
-        <v>12</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="31">
-        <v>20</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35">
-        <v>14</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="50">
-        <v>20</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>15</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="77">
-        <v>20</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="84" t="s">
-        <v>79</v>
+      <c r="F10" s="50" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -39805,134 +39710,115 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="80" style="13" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="18"/>
+    <col min="3" max="4" width="8.88671875" style="16"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="44.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
-        <v>22</v>
+      <c r="A1" s="75" t="s">
+        <v>21</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="85"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="74" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>6</v>
+    <row r="3" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47">
+        <v>13</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>71</v>
+      <c r="B3" s="47" t="s">
+        <v>69</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="47">
+        <v>12</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="9" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="47">
+        <v>17</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="47">
         <v>8</v>
       </c>
-      <c r="D3" s="75">
-        <v>20</v>
+      <c r="E4" s="47" t="s">
+        <v>75</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F4" s="47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47">
+        <v>16</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="47">
+        <v>40</v>
+      </c>
+      <c r="E5" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="87" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>13</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="76">
-        <v>12</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="88" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>17</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="76">
-        <v>8</v>
-      </c>
-      <c r="E5" s="24" t="s">
+      <c r="F5" s="47" t="s">
         <v>78</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
-        <v>16</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="76">
-        <v>40</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="89" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/documentatie/Excel bestanden/Product backlog overview & Sprint backlogs(2).xlsx
+++ b/documentatie/Excel bestanden/Product backlog overview & Sprint backlogs(2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6336" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6336" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -905,6 +905,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -913,9 +916,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1217,10 +1217,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="77"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="8"/>
@@ -1466,7 +1466,7 @@
       <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="75" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -16350,10 +16350,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="51"/>
@@ -39502,7 +39502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -39516,10 +39516,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -39718,7 +39718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -39732,10 +39732,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="77"/>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
       <c r="E1" s="17"/>
@@ -39783,42 +39783,42 @@
     </row>
     <row r="4" spans="1:6" s="9" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="47">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="47">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/documentatie/Excel bestanden/Product backlog overview & Sprint backlogs(2).xlsx
+++ b/documentatie/Excel bestanden/Product backlog overview & Sprint backlogs(2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6336" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6336" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -268,6 +268,18 @@
   </si>
   <si>
     <t>Als user wil ik tenminste 2 grafieken zien in de applicatie.</t>
+  </si>
+  <si>
+    <t>Er is een ERD en een RRM van het database.</t>
+  </si>
+  <si>
+    <t>Als user wil ik een ERD en een RRM van het database zien</t>
+  </si>
+  <si>
+    <t>1. Maak een ERD 2. Maak een RRM</t>
+  </si>
+  <si>
+    <t>1 De ERD moet correct en af zijn voor de presentatie 2.De RRM moet correct en af zijn voor de presentatie</t>
   </si>
 </sst>
 </file>
@@ -685,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -732,12 +744,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -893,18 +899,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -916,6 +910,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1196,13 +1211,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N998"/>
+  <dimension ref="A1:N999"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1217,10 +1232,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="8"/>
@@ -1393,7 +1408,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="8"/>
@@ -1417,7 +1432,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="12"/>
@@ -1441,10 +1456,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:14" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
@@ -1457,103 +1472,95 @@
         <v>8</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:14" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:14" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>37</v>
+      <c r="B13" s="69" t="s">
+        <v>81</v>
       </c>
-      <c r="C13" t="s">
-        <v>38</v>
+      <c r="C13" s="9" t="s">
+        <v>8</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="8"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>39</v>
+      <c r="B15" s="9" t="s">
+        <v>53</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>40</v>
+      <c r="C15" s="9" t="s">
+        <v>38</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="27" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="8"/>
@@ -1566,21 +1573,21 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>15</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="27" t="s">
+      <c r="E17" s="25" t="s">
         <v>35</v>
       </c>
+      <c r="F17" s="8"/>
       <c r="G17" s="2"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1590,19 +1597,19 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+    <row r="18" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>16</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="25" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="2"/>
@@ -1615,12 +1622,20 @@
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1680,7 +1695,7 @@
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="13"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1696,8 +1711,8 @@
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1806,7 +1821,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1822,7 +1837,7 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1838,14 +1853,14 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1855,11 +1870,12 @@
       <c r="N33" s="9"/>
     </row>
     <row r="34" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -16314,12 +16330,27 @@
       <c r="M997" s="9"/>
       <c r="N997" s="9"/>
     </row>
-    <row r="998" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B998" s="9"/>
       <c r="C998" s="9"/>
       <c r="D998" s="9"/>
       <c r="E998" s="9"/>
       <c r="F998" s="9"/>
+      <c r="G998" s="9"/>
+      <c r="H998" s="9"/>
+      <c r="I998" s="9"/>
+      <c r="J998" s="9"/>
+      <c r="K998" s="9"/>
+      <c r="L998" s="9"/>
+      <c r="M998" s="9"/>
+      <c r="N998" s="9"/>
+    </row>
+    <row r="999" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B999" s="9"/>
+      <c r="C999" s="9"/>
+      <c r="D999" s="9"/>
+      <c r="E999" s="9"/>
+      <c r="F999" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:B3"/>
@@ -16342,22 +16373,22 @@
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="17" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="47.44140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="47.44140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="37"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -16380,22 +16411,22 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="42" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2"/>
@@ -16420,22 +16451,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67">
+      <c r="A3" s="65">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="67">
         <v>12</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="43" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="2"/>
@@ -16460,22 +16491,22 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58">
+      <c r="A4" s="56">
         <v>2</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="51">
         <v>6</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="59" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="2"/>
@@ -16500,22 +16531,22 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58">
+      <c r="A5" s="56">
         <v>3</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="51">
         <v>2</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="59" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="2"/>
@@ -16540,22 +16571,22 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="59">
+      <c r="A6" s="57">
         <v>4</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="53">
         <v>4</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="60" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="2"/>
@@ -16580,22 +16611,22 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60">
+      <c r="A7" s="58">
         <v>5</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="62">
         <v>8</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="64" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="2"/>
@@ -16713,11 +16744,11 @@
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -16741,11 +16772,11 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -16769,11 +16800,11 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -16797,11 +16828,11 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -16825,11 +16856,11 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -16853,11 +16884,11 @@
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -16881,7 +16912,7 @@
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="22"/>
+      <c r="B18" s="20"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -39502,8 +39533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -39516,192 +39547,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="42" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
+      <c r="A3" s="32">
         <v>6</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="34">
         <v>8</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="43" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="30">
         <v>7</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="27">
         <v>80</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="44" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33">
+      <c r="A5" s="31">
         <v>8</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="46">
         <v>20</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="48" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="30">
         <v>9</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="27">
         <v>20</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="44" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="30">
         <v>10</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="27">
         <v>12</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
-        <v>11</v>
+      <c r="A8" s="30">
+        <v>12</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="27">
         <v>20</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="44" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
-        <v>13</v>
+      <c r="A9" s="31">
+        <v>14</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="46">
         <v>20</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="48" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="9" customFormat="1" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
-        <v>14</v>
+      <c r="A10" s="31">
+        <v>15</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="46">
         <v>20</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="48" t="s">
         <v>76</v>
       </c>
     </row>
@@ -39716,108 +39747,128 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="16" customWidth="1"/>
     <col min="2" max="2" width="80" style="13" customWidth="1"/>
     <col min="3" max="4" width="8.88671875" style="16"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="44.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="78" customWidth="1"/>
+    <col min="6" max="6" width="44.5546875" style="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="80" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47">
-        <v>13</v>
+      <c r="A3" s="31">
+        <v>11</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>69</v>
+      <c r="B3" s="45" t="s">
+        <v>82</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>38</v>
+      <c r="C3" s="46" t="s">
+        <v>8</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="46">
         <v>12</v>
       </c>
       <c r="E3" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="9" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>13</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="46">
+        <v>12</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47">
-        <v>16</v>
+    <row r="5" spans="1:6" s="9" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
+        <v>15</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D5" s="46">
         <v>40</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E5" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F5" s="48" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47">
+    <row r="6" spans="1:6" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
         <v>17</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D6" s="46">
         <v>8</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E6" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F6" s="48" t="s">
         <v>79</v>
       </c>
     </row>

--- a/documentatie/Excel bestanden/Product backlog overview & Sprint backlogs(2).xlsx
+++ b/documentatie/Excel bestanden/Product backlog overview & Sprint backlogs(2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6336" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6336"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="89">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -177,9 +177,6 @@
     <t xml:space="preserve">De applicatie laat tenminste 2 grafieken zien </t>
   </si>
   <si>
-    <t>Er moet een GUI zijn waar je toegang tot kan krijgen en een interactie kan krijgen met de data</t>
-  </si>
-  <si>
     <t>Er is tenminste één query dat gecombineerd is met meerdere datasets</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>1. Zorg dat de datasets gecombineerd kunnen worden in de database</t>
   </si>
   <si>
-    <t>1. Programmeer een GUI     2. Zorg dat je een interactie mee kunt krijgen</t>
-  </si>
-  <si>
     <t>De applicatie koppelen aan google maps</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
   </si>
   <si>
     <t>1. Als er een join query word gebruikt</t>
-  </si>
-  <si>
-    <t>1. Er moet data opgehaald kunnen worden vanuit de database d.m.v. input</t>
   </si>
   <si>
     <t>1. maak een Use Case diagram 2. maak een Activity diagram.</t>
@@ -238,9 +229,6 @@
   </si>
   <si>
     <t>Als user wil ik dat google maps gekoppeld is aan de applicatie</t>
-  </si>
-  <si>
-    <t>Als user wil ik, er moet een GUI zijn waar je toegang tot kan krijgen en een interactie kan krijgen met de data</t>
   </si>
   <si>
     <t>Als user wil ik, data verzamelen uit de datasets</t>
@@ -280,6 +268,30 @@
   </si>
   <si>
     <t>1 De ERD moet correct en af zijn voor de presentatie 2.De RRM moet correct en af zijn voor de presentatie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle formulieren, menu's en google maps samenvoegen in één formulier </t>
+  </si>
+  <si>
+    <t>Er moet een menu te zien zijn in de applicatie</t>
+  </si>
+  <si>
+    <t>Als user wil ik, een menu zien in de applicatie</t>
+  </si>
+  <si>
+    <t>1. Programmeer een menu     2. Zorg dat je een interactie mee kunt krijgen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als user wil ik, dat alle formulieren, menu's en google maps samengevoegd zijn in één formulier </t>
+  </si>
+  <si>
+    <t>1. menu moet wel relevant zijn.</t>
+  </si>
+  <si>
+    <t>1. Koppel alle formulieren, menu's en google maps aan elkaar.</t>
+  </si>
+  <si>
+    <t>1. Het moet kunnen werken als je ze hebt gekoppeld aan elkaar</t>
   </si>
 </sst>
 </file>
@@ -902,14 +914,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -931,6 +935,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,13 +1223,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N999"/>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1232,10 +1244,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="78"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="8"/>
@@ -1450,7 +1462,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>8</v>
@@ -1466,10 +1478,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="25" t="s">
@@ -1482,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>8</v>
@@ -1504,81 +1516,73 @@
         <v>8</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25" t="s">
+      <c r="E13" s="25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>37</v>
+      <c r="B14" s="69" t="s">
+        <v>77</v>
       </c>
-      <c r="C14" t="s">
-        <v>38</v>
+      <c r="C14" s="9" t="s">
+        <v>8</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25" t="s">
+      <c r="E15" s="25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="8"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>39</v>
+      <c r="B16" s="9" t="s">
+        <v>52</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>40</v>
+      <c r="C16" s="9" t="s">
+        <v>38</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>15</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>40</v>
@@ -1597,21 +1601,21 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>16</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="25" t="s">
+      <c r="E18" s="25" t="s">
         <v>35</v>
       </c>
+      <c r="F18" s="8"/>
       <c r="G18" s="2"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1621,12 +1625,12 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+    <row r="19" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
         <v>17</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>40</v>
@@ -1646,12 +1650,20 @@
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -1711,7 +1723,7 @@
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="13"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1727,8 +1739,8 @@
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -1837,7 +1849,7 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1853,7 +1865,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1869,14 +1881,14 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1886,11 +1898,12 @@
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -16345,12 +16358,27 @@
       <c r="M998" s="9"/>
       <c r="N998" s="9"/>
     </row>
-    <row r="999" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="2:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B999" s="9"/>
       <c r="C999" s="9"/>
       <c r="D999" s="9"/>
       <c r="E999" s="9"/>
       <c r="F999" s="9"/>
+      <c r="G999" s="9"/>
+      <c r="H999" s="9"/>
+      <c r="I999" s="9"/>
+      <c r="J999" s="9"/>
+      <c r="K999" s="9"/>
+      <c r="L999" s="9"/>
+      <c r="M999" s="9"/>
+      <c r="N999" s="9"/>
+    </row>
+    <row r="1000" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1000" s="9"/>
+      <c r="C1000" s="9"/>
+      <c r="D1000" s="9"/>
+      <c r="E1000" s="9"/>
+      <c r="F1000" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:B3"/>
@@ -16381,10 +16409,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="73"/>
+      <c r="B1" s="80"/>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
       <c r="E1" s="49"/>
@@ -39531,10 +39559,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -39547,10 +39575,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="73"/>
+      <c r="B1" s="80"/>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
@@ -39581,7 +39609,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>8</v>
@@ -39601,7 +39629,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>8</v>
@@ -39621,7 +39649,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>8</v>
@@ -39630,10 +39658,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
@@ -39641,27 +39669,27 @@
         <v>9</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D6" s="27">
         <v>20</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="9" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>8</v>
@@ -39670,58 +39698,58 @@
         <v>12</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>12</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="27">
+        <v>12</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>13</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D9" s="27">
         <v>20</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E9" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F9" s="44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31">
-        <v>14</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="46">
-        <v>20</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>15</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>40</v>
@@ -39730,10 +39758,30 @@
         <v>20</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F10" s="48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>16</v>
+      </c>
+      <c r="B11" s="45" t="s">
         <v>76</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="46">
+        <v>20</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -39749,8 +39797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -39758,19 +39806,19 @@
     <col min="1" max="1" width="4.6640625" style="16" customWidth="1"/>
     <col min="2" max="2" width="80" style="13" customWidth="1"/>
     <col min="3" max="4" width="8.88671875" style="16"/>
-    <col min="5" max="5" width="19.6640625" style="78" customWidth="1"/>
-    <col min="6" max="6" width="44.5546875" style="78" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="74" customWidth="1"/>
+    <col min="6" max="6" width="44.5546875" style="74" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="75"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -39779,25 +39827,25 @@
       <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="76" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>8</v>
@@ -39806,18 +39854,18 @@
         <v>12</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="9" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>38</v>
@@ -39826,18 +39874,18 @@
         <v>12</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="9" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>40</v>
@@ -39846,18 +39894,18 @@
         <v>40</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C6" s="46" t="s">
         <v>40</v>
@@ -39866,10 +39914,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/documentatie/Excel bestanden/Product backlog overview & Sprint backlogs(2).xlsx
+++ b/documentatie/Excel bestanden/Product backlog overview & Sprint backlogs(2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6336" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>Er is een ERD en een RRM van het database.</t>
   </si>
   <si>
-    <t>Als user wil ik een ERD en een RRM van het database zien</t>
-  </si>
-  <si>
     <t>1. Maak een ERD 2. Maak een RRM</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>1. Het moet kunnen werken als je ze hebt gekoppeld aan elkaar</t>
+  </si>
+  <si>
+    <t>Als user wil ik een ERD en een RM van het database zien</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>8</v>
@@ -1510,7 +1510,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>8</v>
@@ -39561,7 +39561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -39689,7 +39689,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>8</v>
@@ -39698,10 +39698,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
@@ -39709,7 +39709,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>8</v>
@@ -39718,10 +39718,10 @@
         <v>12</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
@@ -39797,8 +39797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -39845,7 +39845,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>8</v>
@@ -39854,10 +39854,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="9" customFormat="1" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
